--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H2">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I2">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J2">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>26.25023729019334</v>
+        <v>0.9212007890555555</v>
       </c>
       <c r="R2">
-        <v>236.25213561174</v>
+        <v>8.290807101499999</v>
       </c>
       <c r="S2">
-        <v>0.5533699460842422</v>
+        <v>0.01046220718811821</v>
       </c>
       <c r="T2">
-        <v>0.5533699460842422</v>
+        <v>0.01046220718811821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H3">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I3">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J3">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>5.709511608128333</v>
+        <v>0.09127621658944444</v>
       </c>
       <c r="R3">
-        <v>51.38560447315501</v>
+        <v>0.821485949305</v>
       </c>
       <c r="S3">
-        <v>0.1203597550692488</v>
+        <v>0.001036636855560411</v>
       </c>
       <c r="T3">
-        <v>0.1203597550692488</v>
+        <v>0.001036636855560411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H4">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I4">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J4">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>11.073218606599</v>
+        <v>0.2315109701675556</v>
       </c>
       <c r="R4">
-        <v>99.65896745939101</v>
+        <v>2.083598731508</v>
       </c>
       <c r="S4">
-        <v>0.2334297521036842</v>
+        <v>0.002629302715533334</v>
       </c>
       <c r="T4">
-        <v>0.2334297521036842</v>
+        <v>0.002629302715533334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H5">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I5">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J5">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>2.355170369653333</v>
+        <v>57.62296899516667</v>
       </c>
       <c r="R5">
-        <v>21.19653332688</v>
+        <v>518.6067209565</v>
       </c>
       <c r="S5">
-        <v>0.04964833216807355</v>
+        <v>0.6544321798074235</v>
       </c>
       <c r="T5">
-        <v>0.04964833216807355</v>
+        <v>0.6544321798074235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H6">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I6">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J6">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
-        <v>0.5122571813733333</v>
+        <v>5.709511608128333</v>
       </c>
       <c r="R6">
-        <v>4.61031463236</v>
+        <v>51.385604473155</v>
       </c>
       <c r="S6">
-        <v>0.01079867300642369</v>
+        <v>0.06484372798730006</v>
       </c>
       <c r="T6">
-        <v>0.01079867300642369</v>
+        <v>0.06484372798730008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H7">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I7">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J7">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>0.993488785288</v>
+        <v>14.48147853811867</v>
       </c>
       <c r="R7">
-        <v>8.941399067591998</v>
+        <v>130.333306843068</v>
       </c>
       <c r="S7">
-        <v>0.02094330917745661</v>
+        <v>0.1644681926634213</v>
       </c>
       <c r="T7">
-        <v>0.02094330917745661</v>
+        <v>0.1644681926634213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.126465</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H8">
-        <v>0.379395</v>
+        <v>3.030587</v>
       </c>
       <c r="I8">
-        <v>0.01145023239087081</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J8">
-        <v>0.01145023239087081</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N8">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q8">
-        <v>0.3313323983</v>
+        <v>5.809803644944443</v>
       </c>
       <c r="R8">
-        <v>2.9819915847</v>
+        <v>52.28823280449999</v>
       </c>
       <c r="S8">
-        <v>0.006984675580503421</v>
+        <v>0.06598275878379371</v>
       </c>
       <c r="T8">
-        <v>0.00698467558050342</v>
+        <v>0.06598275878379373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.126465</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H9">
-        <v>0.379395</v>
+        <v>3.030587</v>
       </c>
       <c r="I9">
-        <v>0.01145023239087081</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J9">
-        <v>0.01145023239087081</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>1.709545</v>
       </c>
       <c r="O9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q9">
-        <v>0.07206586947499999</v>
+        <v>0.5756583169905554</v>
       </c>
       <c r="R9">
-        <v>0.648592825275</v>
+        <v>5.180924852914999</v>
       </c>
       <c r="S9">
-        <v>0.001519189554937584</v>
+        <v>0.00653783263483007</v>
       </c>
       <c r="T9">
-        <v>0.001519189554937584</v>
+        <v>0.006537832634830073</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.010195666666666</v>
+      </c>
+      <c r="H10">
+        <v>3.030587</v>
+      </c>
+      <c r="I10">
+        <v>0.08910300502687639</v>
+      </c>
+      <c r="J10">
+        <v>0.0891030050268764</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.445350666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.336052</v>
+      </c>
+      <c r="O10">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="P10">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="Q10">
+        <v>1.460086980280444</v>
+      </c>
+      <c r="R10">
+        <v>13.140782822524</v>
+      </c>
+      <c r="S10">
+        <v>0.01658241360825261</v>
+      </c>
+      <c r="T10">
+        <v>0.01658241360825261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.443</v>
+      </c>
+      <c r="I11">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J11">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.751166666666666</v>
+      </c>
+      <c r="N11">
+        <v>17.2535</v>
+      </c>
+      <c r="O11">
+        <v>0.7405222614421495</v>
+      </c>
+      <c r="P11">
+        <v>0.7405222614421495</v>
+      </c>
+      <c r="Q11">
+        <v>0.849255611111111</v>
+      </c>
+      <c r="R11">
+        <v>7.6433005</v>
+      </c>
+      <c r="S11">
+        <v>0.009645115662814042</v>
+      </c>
+      <c r="T11">
+        <v>0.009645115662814042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.126465</v>
-      </c>
-      <c r="H10">
-        <v>0.379395</v>
-      </c>
-      <c r="I10">
-        <v>0.01145023239087081</v>
-      </c>
-      <c r="J10">
-        <v>0.01145023239087081</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.105183</v>
-      </c>
-      <c r="N10">
-        <v>3.315549</v>
-      </c>
-      <c r="O10">
-        <v>0.2573194285365706</v>
-      </c>
-      <c r="P10">
-        <v>0.2573194285365706</v>
-      </c>
-      <c r="Q10">
-        <v>0.139766968095</v>
-      </c>
-      <c r="R10">
-        <v>1.257902712855</v>
-      </c>
-      <c r="S10">
-        <v>0.002946367255429809</v>
-      </c>
-      <c r="T10">
-        <v>0.002946367255429808</v>
+      <c r="G12">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.443</v>
+      </c>
+      <c r="I12">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J12">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.709545</v>
+      </c>
+      <c r="O12">
+        <v>0.07337387367415998</v>
+      </c>
+      <c r="P12">
+        <v>0.07337387367416</v>
+      </c>
+      <c r="Q12">
+        <v>0.08414760388888888</v>
+      </c>
+      <c r="R12">
+        <v>0.7573284349999999</v>
+      </c>
+      <c r="S12">
+        <v>0.000955676196469437</v>
+      </c>
+      <c r="T12">
+        <v>0.0009556761964694372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.443</v>
+      </c>
+      <c r="I13">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J13">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.445350666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.336052</v>
+      </c>
+      <c r="O13">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="P13">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="Q13">
+        <v>0.2134301151111112</v>
+      </c>
+      <c r="R13">
+        <v>1.920871036</v>
+      </c>
+      <c r="S13">
+        <v>0.00242395589648339</v>
+      </c>
+      <c r="T13">
+        <v>0.00242395589648339</v>
       </c>
     </row>
   </sheetData>
